--- a/homework #2/Spreadsheet.xlsx
+++ b/homework #2/Spreadsheet.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6936" windowHeight="5724"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Buffersize</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +42,10 @@
   </si>
   <si>
     <t>avg_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -136,7 +146,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Performance</a:t>
+              <a:t>Performance(Time)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -481,7 +491,416 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance(Speed)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33875.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48646.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58003.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69669.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74940.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83479.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90719.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84117.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110898.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1413-4DB3-9DAC-FBC0E1785CAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="330085967"/>
+        <c:axId val="330085135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="330085967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330085135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="330085135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330085967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1037,20 +1456,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1067,6 +2002,105 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4244340" y="2484120"/>
+          <a:ext cx="1203960" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>X:BufferSize(Byte)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>Y:Speed(Bytes/sec)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1108,12 +2142,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.08333</cdr:x>
-      <cdr:y>0.00556</cdr:y>
+      <cdr:x>0.00823</cdr:x>
+      <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.355</cdr:x>
-      <cdr:y>0.18333</cdr:y>
+      <cdr:x>0.41304</cdr:x>
+      <cdr:y>0.23655</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1122,8 +2156,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="381000" y="15240"/>
-          <a:ext cx="1242060" cy="487680"/>
+          <a:off x="31736" y="0"/>
+          <a:ext cx="1560843" cy="513705"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1134,8 +2168,8 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>X:BufferSize(byte)</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>X:BufferSize(Byte)</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1157,19 +2191,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
             <a:t>Y:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Bytes/s</a:t>
+            <a:t>Time(MS)</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -1177,6 +2211,100 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>16</v>
+          </cell>
+          <cell r="B1">
+            <v>33875.5</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>32</v>
+          </cell>
+          <cell r="B2">
+            <v>48646.25</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>64</v>
+          </cell>
+          <cell r="B3">
+            <v>58003.25</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>128</v>
+          </cell>
+          <cell r="B4">
+            <v>69669.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>256</v>
+          </cell>
+          <cell r="B5">
+            <v>74940.25</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>512</v>
+          </cell>
+          <cell r="B6">
+            <v>83479.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1024</v>
+          </cell>
+          <cell r="B7">
+            <v>90800</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2048</v>
+          </cell>
+          <cell r="B8">
+            <v>90719.75</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>4096</v>
+          </cell>
+          <cell r="B9">
+            <v>84117.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8192</v>
+          </cell>
+          <cell r="B10">
+            <v>110898.25</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1442,242 +2570,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>16</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE(C2:F2)</f>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:B11" si="0">AVERAGE(C2:F2)</f>
         <v>5920.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>7126</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4875</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>5164</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>6517</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>32</v>
       </c>
-      <c r="B3">
-        <f>AVERAGE(C3:F3)</f>
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
         <v>4294.25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4204</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5166</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3746</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>4061</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>64</v>
       </c>
-      <c r="B4">
-        <f>AVERAGE(C4:F4)</f>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
         <v>3526.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3799</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3555</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3006</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3746</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>128</v>
       </c>
-      <c r="B5">
-        <f>AVERAGE(C5:F5)</f>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
         <v>2524.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3090</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1740</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>2878</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2390</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>256</v>
       </c>
-      <c r="B6">
-        <f>AVERAGE(C6:F6)</f>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
         <v>2333.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2733</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1732</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2170</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2699</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>512</v>
       </c>
-      <c r="B7">
-        <f>AVERAGE(C7:F7)</f>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>1999.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2579</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1920</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1911</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1588</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1024</v>
       </c>
-      <c r="B8">
-        <f>AVERAGE(C8:F8)</f>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>1647.25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1444</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1822</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1537</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1786</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2048</v>
       </c>
-      <c r="B9">
-        <f>AVERAGE(C9:F9)</f>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>1763.25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1407</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1911</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1493</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>4096</v>
       </c>
-      <c r="B10">
-        <f>AVERAGE(C10:F10)</f>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>2071.75</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1664</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1643</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2995</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1985</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>8192</v>
       </c>
-      <c r="B11">
-        <f>AVERAGE(C11:F11)</f>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>1648.25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1608</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1774</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1559</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <f>AVERAGE(C16:F16)</f>
+        <v>33875.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32400</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35041</v>
+      </c>
+      <c r="E16" s="1">
+        <v>33733</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:B25" si="1">AVERAGE(C17:F17)</f>
+        <v>48646.25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>51421</v>
+      </c>
+      <c r="D17" s="1">
+        <v>47573</v>
+      </c>
+      <c r="E17" s="1">
+        <v>47453</v>
+      </c>
+      <c r="F17" s="1">
+        <v>48138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>58003.25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>65465</v>
+      </c>
+      <c r="D18" s="1">
+        <v>67376</v>
+      </c>
+      <c r="E18" s="1">
+        <v>46598</v>
+      </c>
+      <c r="F18" s="1">
+        <v>52574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>128</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>69669.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>65926</v>
+      </c>
+      <c r="D19" s="1">
+        <v>63472</v>
+      </c>
+      <c r="E19" s="1">
+        <v>72451</v>
+      </c>
+      <c r="F19" s="1">
+        <v>76829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>256</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>74940.25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>70378</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80239</v>
+      </c>
+      <c r="E20" s="1">
+        <v>70544</v>
+      </c>
+      <c r="F20" s="1">
+        <v>78600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>512</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>83479.75</v>
+      </c>
+      <c r="C21" s="1">
+        <v>82808</v>
+      </c>
+      <c r="D21" s="1">
+        <v>83314</v>
+      </c>
+      <c r="E21" s="1">
+        <v>87644</v>
+      </c>
+      <c r="F21" s="1">
+        <v>80153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>90800</v>
+      </c>
+      <c r="C22" s="1">
+        <v>79139</v>
+      </c>
+      <c r="D22" s="1">
+        <v>86934</v>
+      </c>
+      <c r="E22" s="1">
+        <v>97560</v>
+      </c>
+      <c r="F22" s="1">
+        <v>99567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>90719.75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>91120</v>
+      </c>
+      <c r="D23" s="1">
+        <v>95632</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90484</v>
+      </c>
+      <c r="F23" s="1">
+        <v>85643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>84117.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>86833</v>
+      </c>
+      <c r="D24" s="1">
+        <v>98586</v>
+      </c>
+      <c r="E24" s="1">
+        <v>92622</v>
+      </c>
+      <c r="F24" s="1">
+        <v>58429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>110898.25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>132317</v>
+      </c>
+      <c r="D25" s="1">
+        <v>105444</v>
+      </c>
+      <c r="E25" s="1">
+        <v>109524</v>
+      </c>
+      <c r="F25" s="1">
+        <v>96308</v>
       </c>
     </row>
   </sheetData>
